--- a/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_24.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_4/PTA3_ADDC_10_4_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,88 +505,2008 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1731873300.6855617</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1731873304.9652343</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731873300.6855617.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731873304.9652343.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>295.99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>295.87</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1731873306.611285</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731873306.611285.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>296.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1731873307.350479</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1731873310.1327012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873307.350479.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873310.1327012.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>136.21</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1731873311.8060434</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1731873313.0011296</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873311.8060434.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873313.0011296.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="L6" t="n">
+        <v>136.51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.06999999999999318</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731873314.564292</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731873314.7404354</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873314.564292.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873314.7404354.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="L7" t="n">
+        <v>136.89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1900000000000261</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731873314.891396</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731873314.891396.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="L8" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731873315.3180788</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731873315.4176047</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873315.3180788.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873315.4176047.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6971</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6964.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731873321.6465766</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1731873322.558896</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873321.6465766.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873322.558896.png</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>6950</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6980</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731873322.573862</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731873323.0703065</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873322.573862.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731873323.0703065.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6980</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6960</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731873324.0361474</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731873331.0862846</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731873324.0361474.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731873331.0862846.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>535.65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>537</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.350000000000023</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731873331.1012452</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731873331.1012452.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>537</v>
+      </c>
+      <c r="L13" t="n">
+        <v>537</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731873337.1605783</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731873337.3806148</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731873337.1605783.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731873337.3806148.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1094.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1094.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1999999999998181</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731873339.2864437</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731873339.2864437.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1087.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-2.600000000000136</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731873340.773716</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731873340.773716.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="L16" t="n">
+        <v>131.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-1.51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731873352.1840568</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731873355.8898308</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731873352.1840568.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731873355.8898308.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>172.44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-3.939999999999998</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731873356.1831582</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731873356.1831582.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>171.76</v>
+      </c>
+      <c r="L18" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.01999999999998181</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731873368.244547</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1731873371.9575536</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731873368.244547.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731873371.9575536.png</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1470</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731873372.2415543</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731873372.803239</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731873372.2415543.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731873372.803239.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1470.8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1468.8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731873372.8598845</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731873372.8598845.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1468</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731873374.876118</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731873376.4314957</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873374.876118.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873376.4314957.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>64.06999999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731873379.0924575</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1731873381.5214937</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873379.0924575.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873381.5214937.png</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="L23" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.480000000000004</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731873381.5364656</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731873381.9773598</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873381.5364656.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731873381.9773598.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="L24" t="n">
+        <v>64.17</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2600000000000051</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731873385.8322372</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731873387.94853</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731873385.8322372.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731873387.94853.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>59.12</v>
+      </c>
+      <c r="L25" t="n">
+        <v>59.06</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731873393.1521158</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731873394.6535676</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873393.1521158.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873394.6535676.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>145.58</v>
+      </c>
+      <c r="L26" t="n">
+        <v>146</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4199999999999875</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731873395.0272915</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1731873395.227948</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873395.0272915.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873395.227948.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7000000000000171</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731873396.3095834</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731873397.8987582</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873396.3095834.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731873397.8987582.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>145.32</v>
+      </c>
+      <c r="L28" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5800000000000125</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731873402.1616948</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731873404.5361335</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731873402.1616948.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731873404.5361335.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>89.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731873408.859991</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1731873410.5299413</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731873408.859991.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731873410.5299413.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>363.83</v>
+      </c>
+      <c r="L30" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.229999999999961</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731873414.6718147</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731873414.6718147.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-3.840000000000032</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731873416.8996215</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731873422.021068</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873416.8996215.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873422.021068.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.10028</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.0006799999999999862</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731873422.2857249</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731873423.9352028</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873422.2857249.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731873423.9352028.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1002</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.10062</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0004200000000000037</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731702181.056629</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731702181.056629.png</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731873424.716704</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731873424.716704.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>3117.15</v>
       </c>
-      <c r="J3" t="n">
-        <v>3117.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>3132.95</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731873437.265585</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731873440.8600962</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731873437.265585.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731873440.8600962.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>38.055</v>
+      </c>
+      <c r="L35" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731873443.9780686</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731873444.5384989</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731873443.9780686.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731873444.5384989.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>664.9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>662.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731873446.7222764</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731873448.0938492</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731873446.7222764.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731873448.0938492.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>665.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>664.1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +2520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,42 +2563,394 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0.1899999999999693</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0.04749999999999233</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-6.200000000000045</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.066666666666682</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8099999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.700000000000017</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5666666666666723</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3433333333333337</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-3.95999999999998</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.97999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.2799999999999727</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1399999999999864</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.61000000000007</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.8050000000000352</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0002599999999999825</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0001299999999999912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.400000000000318</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.200000000000159</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.350000000000023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.6750000000000114</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.05999999999999517</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03999999999999204</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.04500000000000171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-15.79999999999973</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.960000000000008</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
